--- a/class_info.xlsx
+++ b/class_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\program\python\python_basic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kyle\code\python\python_basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1642A295-E804-4BC3-8CE7-67C34CA78380}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89532AA9-B85E-4471-8AA8-E0BF64955497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,14 @@
   </si>
   <si>
     <t>M301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖添丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m409</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,15 +417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -428,7 +436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>601</v>
       </c>
@@ -439,7 +447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>601</v>
       </c>
@@ -450,7 +458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>602</v>
       </c>
@@ -461,7 +469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>602</v>
       </c>
@@ -472,7 +480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>602</v>
       </c>
@@ -483,7 +491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>603</v>
       </c>
@@ -492,6 +500,17 @@
       </c>
       <c r="C7" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>604</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/class_info.xlsx
+++ b/class_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kyle\code\python\python_basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89532AA9-B85E-4471-8AA8-E0BF64955497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4991F7EF-8EC6-4329-BB1C-CB7CA835ECA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11115" yWindow="135" windowWidth="17685" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,15 +417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -436,7 +436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>601</v>
       </c>
@@ -447,7 +447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>601</v>
       </c>
@@ -458,7 +458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>602</v>
       </c>
@@ -469,7 +469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>602</v>
       </c>
@@ -480,7 +480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>602</v>
       </c>
@@ -491,7 +491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>603</v>
       </c>
@@ -502,7 +502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>604</v>
       </c>
@@ -511,6 +511,9 @@
       </c>
       <c r="C8" t="s">
         <v>16</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/class_info.xlsx
+++ b/class_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kyle\code\python\python_basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4991F7EF-8EC6-4329-BB1C-CB7CA835ECA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BC58CF-FB41-49C6-8327-5EFCAFD29237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11115" yWindow="135" windowWidth="17685" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,30 @@
   </si>
   <si>
     <t>m409</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名聲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老師, 主任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生, 班長</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +444,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -435,6 +459,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -446,6 +473,9 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -457,16 +487,22 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -479,6 +515,9 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -490,10 +529,13 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -501,10 +543,13 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -512,8 +557,8 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8">
-        <v>12</v>
+      <c r="D8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/class_info.xlsx
+++ b/class_info.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kyle\code\python\python_basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BC58CF-FB41-49C6-8327-5EFCAFD29237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A44B4F0-968F-4AB1-8DE4-A845AF4F73BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11115" yWindow="135" windowWidth="17685" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="class1" sheetId="1" r:id="rId1"/>
+    <sheet name="class2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +117,38 @@
   </si>
   <si>
     <t>學生, 班長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bird</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liopard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rabbit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>額外的欄位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -566,4 +599,157 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DF9DB7-4F73-44EB-8A7E-D8581130774B}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>601</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>601</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>601</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>602</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>602</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>602</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>603</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>